--- a/src/main/resources/Datos/Data.xlsx
+++ b/src/main/resources/Datos/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>correo</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>/users</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>1-765-789-6734</t>
   </si>
 </sst>
 </file>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,10 +426,12 @@
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +450,14 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -455,6 +475,12 @@
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
